--- a/2026-baidu-预选赛/测试用例模版.xlsx
+++ b/2026-baidu-预选赛/测试用例模版.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\比赛\软件测试\2026-预选赛\2025全国大学生软件测试大赛Web应用测试预选赛\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\比赛\软件测试\git\2026-baidu-预选赛\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB3697D-2B69-4F7F-A397-152C45654EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5EA8F7-CDD9-4DAC-9090-AB361A229D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>有效公交线路查询（南大-&gt;新街口）</t>
-  </si>
-  <si>
-    <t>有效公交线路查询（南大-&gt;新街口）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -667,6 +664,10 @@
   </si>
   <si>
     <t>16503401829_BaiDuMap_R006_001.png</t>
+  </si>
+  <si>
+    <t>用例说明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1031,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1060,7 +1061,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -1092,723 +1093,723 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="229.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="229.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="229.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="229.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="G12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="F18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="175.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="175.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="175.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="175.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
